--- a/dashboard-ui/src/components/DRE-Research/variables/Variable Definitions RQ6.xlsx
+++ b/dashboard-ui/src/components/DRE-Research/variables/Variable Definitions RQ6.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28116"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7F4B133-22AC-4852-A437-D884DF071801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D1B7796-198C-4616-BDC1-351432990CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>Variables</t>
   </si>
   <si>
-    <t>Delegator_ID</t>
+    <t>Participant_ID</t>
   </si>
   <si>
     <t>TA1_Name</t>
@@ -48,16 +48,16 @@
     <t>Scenario</t>
   </si>
   <si>
-    <t>Alignment score (Delegator_Text|Delegator_sim)</t>
+    <t>Alignment score (Participant_Text|Participant_sim)</t>
   </si>
   <si>
     <t>Source</t>
   </si>
   <si>
-    <t>Delegation survey response log</t>
-  </si>
-  <si>
-    <t>Delegation survey loading log</t>
+    <t>Text scenarios and sim scenarios (matched)</t>
+  </si>
+  <si>
+    <t>Text scenarios</t>
   </si>
   <si>
     <t>TA1 server post experiment</t>
@@ -66,16 +66,16 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>Used to track and identify participants, also called Participant ID</t>
+    <t>Used to track and identify participants, also called Delegator ID</t>
   </si>
   <si>
     <t>Origin of scenario</t>
   </si>
   <si>
-    <t>Scenario presented to the delegators in DM observation materials</t>
-  </si>
-  <si>
-    <t>Compares the KDMA measurement based on delegator probe responses on the text scenario to delegator probe response in the simulated scenario</t>
+    <t>Scenario presented to the participant in the text scenarios</t>
+  </si>
+  <si>
+    <t>Comparse the KDMA measurement based on participant probe responses on the text scenario to participant probe responses in the simulated scenario</t>
   </si>
   <si>
     <t>Levels</t>
@@ -451,7 +451,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -479,7 +479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30.75">
+    <row r="2" spans="1:6" ht="45.75">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
